--- a/equipment_sequence/zhong_xin/mbx/mbx_manual_20250925.xlsx
+++ b/equipment_sequence/zhong_xin/mbx/mbx_manual_20250925.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="842"/>
+    <workbookView windowHeight="17775" tabRatio="842" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="14" r:id="rId1"/>
@@ -3655,8 +3655,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -4574,10 +4574,10 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="$A16:$XFD17"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
